--- a/docs/garbage/DenseNet_results.xlsx
+++ b/docs/garbage/DenseNet_results.xlsx
@@ -1,55 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MSVS_projects\teach\AudioInsertionDetection\docs\misc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7650"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DenseNet_results" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="DenseNet_results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>guzhov, same</t>
-  </si>
-  <si>
-    <t>guzhov, different</t>
-  </si>
-  <si>
-    <t>palanisamy, same</t>
-  </si>
-  <si>
-    <t>palanisamy, different</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -68,21 +48,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -370,255 +409,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <f>SUM(A2:V2)/22</f>
-        <v>9.3038812117143106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>12.05822849273682</v>
-      </c>
-      <c r="B2">
-        <v>11.373393058776861</v>
-      </c>
-      <c r="C2">
-        <v>9.4963016510009766</v>
-      </c>
-      <c r="D2">
-        <v>6.9280657768249512</v>
-      </c>
-      <c r="E2">
-        <v>8.047062873840332</v>
-      </c>
-      <c r="F2">
-        <v>6.9028544425964364</v>
-      </c>
-      <c r="G2">
-        <v>8.6766529083251953</v>
-      </c>
-      <c r="H2">
-        <v>8.1521444320678711</v>
-      </c>
-      <c r="I2">
-        <v>13.923219680786129</v>
-      </c>
-      <c r="J2">
-        <v>10.09552478790283</v>
-      </c>
-      <c r="K2">
-        <v>15.21642398834229</v>
-      </c>
-      <c r="L2">
-        <v>6.8997817039489746</v>
-      </c>
-      <c r="M2">
-        <v>9.0726900100708008</v>
-      </c>
-      <c r="N2">
-        <v>6.417452335357666</v>
-      </c>
-      <c r="O2">
-        <v>9.7744131088256836</v>
-      </c>
-      <c r="P2">
-        <v>8.002685546875</v>
-      </c>
-      <c r="Q2">
-        <v>11.60927581787109</v>
-      </c>
-      <c r="R2">
-        <v>7.5817399024963379</v>
-      </c>
-      <c r="S2">
-        <v>6.5072445869445801</v>
-      </c>
-      <c r="T2">
-        <v>7.2308273315429688</v>
-      </c>
-      <c r="U2">
-        <v>11.84117317199707</v>
-      </c>
-      <c r="V2">
-        <v>8.8782310485839844</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f>SUM(A4:V4)/11</f>
-        <v>26.048287304964933</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>22.833759307861332</v>
-      </c>
-      <c r="B4">
-        <v>25.895204544067379</v>
-      </c>
-      <c r="C4">
-        <v>28.676815032958981</v>
-      </c>
-      <c r="D4">
-        <v>27.173332214355469</v>
-      </c>
-      <c r="E4">
-        <v>27.03016471862793</v>
-      </c>
-      <c r="F4">
-        <v>26.551128387451168</v>
-      </c>
-      <c r="G4">
-        <v>26.251199722290039</v>
-      </c>
-      <c r="H4">
-        <v>27.158939361572269</v>
-      </c>
-      <c r="I4">
-        <v>26.690713882446289</v>
-      </c>
-      <c r="J4">
-        <v>23.511005401611332</v>
-      </c>
-      <c r="K4">
-        <v>24.75889778137207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <f>SUM(A6:V6)/22</f>
-        <v>9.1117995435541328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>12.867800712585449</v>
-      </c>
-      <c r="B6">
-        <v>11.34066677093506</v>
-      </c>
-      <c r="C6">
-        <v>10.625863075256349</v>
-      </c>
-      <c r="D6">
-        <v>5.8501057624816886</v>
-      </c>
-      <c r="E6">
-        <v>10.30126476287842</v>
-      </c>
-      <c r="F6">
-        <v>6.0376071929931641</v>
-      </c>
-      <c r="G6">
-        <v>10.90969753265381</v>
-      </c>
-      <c r="H6">
-        <v>6.2282328605651864</v>
-      </c>
-      <c r="I6">
-        <v>12.257105827331539</v>
-      </c>
-      <c r="J6">
-        <v>6.9470329284667969</v>
-      </c>
-      <c r="K6">
-        <v>14.927120208740231</v>
-      </c>
-      <c r="L6">
-        <v>6.4461793899536133</v>
-      </c>
-      <c r="M6">
-        <v>9.6371850967407227</v>
-      </c>
-      <c r="N6">
-        <v>6.1168789863586426</v>
-      </c>
-      <c r="O6">
-        <v>9.0207738876342773</v>
-      </c>
-      <c r="P6">
-        <v>8.8799104690551758</v>
-      </c>
-      <c r="Q6">
-        <v>9.103611946105957</v>
-      </c>
-      <c r="R6">
-        <v>6.8063507080078116</v>
-      </c>
-      <c r="S6">
-        <v>8.4024248123168945</v>
-      </c>
-      <c r="T6">
-        <v>7.2008223533630371</v>
-      </c>
-      <c r="U6">
-        <v>12.934089660644529</v>
-      </c>
-      <c r="V6">
-        <v>7.6188650131225586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <f>SUM(A8:V8)/11</f>
-        <v>26.590058933604848</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>23.642522811889648</v>
-      </c>
-      <c r="B8">
-        <v>25.650514602661129</v>
-      </c>
-      <c r="C8">
-        <v>26.36485481262207</v>
-      </c>
-      <c r="D8">
-        <v>26.661806106567379</v>
-      </c>
-      <c r="E8">
-        <v>29.381301879882809</v>
-      </c>
-      <c r="F8">
-        <v>29.50661659240723</v>
-      </c>
-      <c r="G8">
-        <v>27.709964752197269</v>
-      </c>
-      <c r="H8">
-        <v>25.857498168945309</v>
-      </c>
-      <c r="I8">
-        <v>25.872665405273441</v>
-      </c>
-      <c r="J8">
-        <v>25.24788665771484</v>
-      </c>
-      <c r="K8">
-        <v>26.595016479492191</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>guzhov, same</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>9.303876183249734</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>guzhov, different</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>26.04828002236106</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>palanisamy, same</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9.111793756484985</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>palanisamy, different</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>26.59006742997603</v>
       </c>
     </row>
   </sheetData>
@@ -627,12 +476,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
